--- a/Excel/Form00021.xlsx
+++ b/Excel/Form00021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawile/IdeaProjects/Keydom/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC808D89-E6B8-4945-931B-A94AC832DDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B923C8A-EEE8-B246-AB5E-DF1A7D7DEA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>密钥人员任命/终止表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,7 +282,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密钥管理员 KM</t>
+    <t>密钥管理员 KA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥经理 KM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +388,23 @@
       <name val="Wingdings 2"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -576,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +652,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,94 +685,166 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -742,64 +859,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1157,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1105,168 +1177,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="28.25" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" ht="13">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="15" customFormat="1" ht="13">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="14">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
         <v>27</v>
@@ -1277,12 +1349,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="17"/>
       <c r="F13" s="10" t="s">
         <v>27</v>
@@ -1293,268 +1365,280 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="17"/>
       <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="57" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="58" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="62" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="62" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="70" t="s">
+      <c r="D18" s="65"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="72"/>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="71" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="73" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A21" s="39" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A22" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="181.75" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="181.75" customHeight="1">
+      <c r="A23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A24" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="125.5" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="125.5" customHeight="1">
+      <c r="A25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="13">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="13">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="13">
+      <c r="A27" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="4" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="14">
-      <c r="A30" s="5" t="s">
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="14">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="14">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="14">
+      <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="14">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="14">
+      <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="27" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="24" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="13"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="13"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -1578,32 +1662,34 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="G33:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"宋体,常规"&amp;18            &amp;"宋体,加粗"四川科道芯国智能技术股份有限公司&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L编制部门:安全策略部&amp;C&amp;"-,倾斜"密级：2 机密&amp;R文件编号：KD-MY01-BD00021  Rev:A0</oddFooter>
